--- a/data/foryou_data.xlsx
+++ b/data/foryou_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SJTU_STUDYING\研究生\研一\Foryou\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SJTU_STUDYING\研究生\研一\Foryou\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7747A1E1-77E4-4452-9F5B-3D185ACC94C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF22450-967D-41DD-813D-153E68A9CDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4488" yWindow="3336" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="7">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -378,15 +378,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L217"/>
+  <dimension ref="A1:L227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="N222" sqref="N222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" customWidth="1"/>
     <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
@@ -5888,41 +5888,727 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E209" s="1"/>
-      <c r="H209" s="1"/>
-    </row>
-    <row r="210" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E210" s="1"/>
-      <c r="H210" s="1"/>
-    </row>
-    <row r="211" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E211" s="1"/>
-      <c r="H211" s="1"/>
-    </row>
-    <row r="212" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E212" s="1"/>
-      <c r="H212" s="1"/>
-    </row>
-    <row r="213" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E213" s="1"/>
-      <c r="H213" s="1"/>
-    </row>
-    <row r="214" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E214" s="1"/>
-      <c r="H214" s="1"/>
-    </row>
-    <row r="215" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E215" s="1"/>
-      <c r="H215" s="1"/>
-    </row>
-    <row r="216" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E216" s="1"/>
-      <c r="H216" s="1"/>
-    </row>
-    <row r="217" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E217" s="1"/>
-      <c r="H217" s="1"/>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>2</v>
+      </c>
+      <c r="B209" s="1">
+        <v>44477</v>
+      </c>
+      <c r="C209">
+        <v>208</v>
+      </c>
+      <c r="D209" t="s">
+        <v>3</v>
+      </c>
+      <c r="E209" s="1">
+        <v>44477</v>
+      </c>
+      <c r="F209">
+        <v>193</v>
+      </c>
+      <c r="G209" t="s">
+        <v>4</v>
+      </c>
+      <c r="H209" s="1">
+        <v>44477</v>
+      </c>
+      <c r="I209">
+        <v>142</v>
+      </c>
+      <c r="J209" t="s">
+        <v>5</v>
+      </c>
+      <c r="K209" s="1">
+        <v>44477</v>
+      </c>
+      <c r="L209">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>2</v>
+      </c>
+      <c r="B210" s="1">
+        <v>44478</v>
+      </c>
+      <c r="C210">
+        <v>209</v>
+      </c>
+      <c r="D210" t="s">
+        <v>3</v>
+      </c>
+      <c r="E210" s="1">
+        <v>44478</v>
+      </c>
+      <c r="F210">
+        <v>194</v>
+      </c>
+      <c r="G210" t="s">
+        <v>4</v>
+      </c>
+      <c r="H210" s="1">
+        <v>44478</v>
+      </c>
+      <c r="I210">
+        <v>143</v>
+      </c>
+      <c r="J210" t="s">
+        <v>5</v>
+      </c>
+      <c r="K210" s="1">
+        <v>44478</v>
+      </c>
+      <c r="L210">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>2</v>
+      </c>
+      <c r="B211" s="1">
+        <v>44479</v>
+      </c>
+      <c r="C211">
+        <v>210</v>
+      </c>
+      <c r="D211" t="s">
+        <v>3</v>
+      </c>
+      <c r="E211" s="1">
+        <v>44479</v>
+      </c>
+      <c r="F211">
+        <v>195</v>
+      </c>
+      <c r="G211" t="s">
+        <v>4</v>
+      </c>
+      <c r="H211" s="1">
+        <v>44479</v>
+      </c>
+      <c r="I211">
+        <v>144</v>
+      </c>
+      <c r="J211" t="s">
+        <v>5</v>
+      </c>
+      <c r="K211" s="1">
+        <v>44479</v>
+      </c>
+      <c r="L211">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>2</v>
+      </c>
+      <c r="B212" s="1">
+        <v>44480</v>
+      </c>
+      <c r="C212">
+        <v>211</v>
+      </c>
+      <c r="D212" t="s">
+        <v>3</v>
+      </c>
+      <c r="E212" s="1">
+        <v>44480</v>
+      </c>
+      <c r="F212">
+        <v>196</v>
+      </c>
+      <c r="G212" t="s">
+        <v>4</v>
+      </c>
+      <c r="H212" s="1">
+        <v>44480</v>
+      </c>
+      <c r="I212">
+        <v>145</v>
+      </c>
+      <c r="J212" t="s">
+        <v>5</v>
+      </c>
+      <c r="K212" s="1">
+        <v>44480</v>
+      </c>
+      <c r="L212">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>2</v>
+      </c>
+      <c r="B213" s="1">
+        <v>44481</v>
+      </c>
+      <c r="C213">
+        <v>212</v>
+      </c>
+      <c r="D213" t="s">
+        <v>3</v>
+      </c>
+      <c r="E213" s="1">
+        <v>44481</v>
+      </c>
+      <c r="F213">
+        <v>197</v>
+      </c>
+      <c r="G213" t="s">
+        <v>4</v>
+      </c>
+      <c r="H213" s="1">
+        <v>44481</v>
+      </c>
+      <c r="I213">
+        <v>146</v>
+      </c>
+      <c r="J213" t="s">
+        <v>5</v>
+      </c>
+      <c r="K213" s="1">
+        <v>44481</v>
+      </c>
+      <c r="L213">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>2</v>
+      </c>
+      <c r="B214" s="1">
+        <v>44482</v>
+      </c>
+      <c r="C214">
+        <v>213</v>
+      </c>
+      <c r="D214" t="s">
+        <v>3</v>
+      </c>
+      <c r="E214" s="1">
+        <v>44482</v>
+      </c>
+      <c r="F214">
+        <v>198</v>
+      </c>
+      <c r="G214" t="s">
+        <v>4</v>
+      </c>
+      <c r="H214" s="1">
+        <v>44482</v>
+      </c>
+      <c r="I214">
+        <v>147</v>
+      </c>
+      <c r="J214" t="s">
+        <v>5</v>
+      </c>
+      <c r="K214" s="1">
+        <v>44482</v>
+      </c>
+      <c r="L214">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>2</v>
+      </c>
+      <c r="B215" s="1">
+        <v>44483</v>
+      </c>
+      <c r="C215">
+        <v>214</v>
+      </c>
+      <c r="D215" t="s">
+        <v>3</v>
+      </c>
+      <c r="E215" s="1">
+        <v>44483</v>
+      </c>
+      <c r="F215">
+        <v>199</v>
+      </c>
+      <c r="G215" t="s">
+        <v>4</v>
+      </c>
+      <c r="H215" s="1">
+        <v>44483</v>
+      </c>
+      <c r="I215">
+        <v>148</v>
+      </c>
+      <c r="J215" t="s">
+        <v>5</v>
+      </c>
+      <c r="K215" s="1">
+        <v>44483</v>
+      </c>
+      <c r="L215">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>2</v>
+      </c>
+      <c r="B216" s="1">
+        <v>44484</v>
+      </c>
+      <c r="C216">
+        <v>215</v>
+      </c>
+      <c r="D216" t="s">
+        <v>3</v>
+      </c>
+      <c r="E216" s="1">
+        <v>44484</v>
+      </c>
+      <c r="F216">
+        <v>200</v>
+      </c>
+      <c r="G216" t="s">
+        <v>4</v>
+      </c>
+      <c r="H216" s="1">
+        <v>44484</v>
+      </c>
+      <c r="I216">
+        <v>149</v>
+      </c>
+      <c r="J216" t="s">
+        <v>5</v>
+      </c>
+      <c r="K216" s="1">
+        <v>44484</v>
+      </c>
+      <c r="L216">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>2</v>
+      </c>
+      <c r="B217" s="1">
+        <v>44485</v>
+      </c>
+      <c r="C217">
+        <v>216</v>
+      </c>
+      <c r="D217" t="s">
+        <v>3</v>
+      </c>
+      <c r="E217" s="1">
+        <v>44485</v>
+      </c>
+      <c r="F217">
+        <v>201</v>
+      </c>
+      <c r="G217" t="s">
+        <v>4</v>
+      </c>
+      <c r="H217" s="1">
+        <v>44485</v>
+      </c>
+      <c r="I217">
+        <v>150</v>
+      </c>
+      <c r="J217" t="s">
+        <v>5</v>
+      </c>
+      <c r="K217" s="1">
+        <v>44485</v>
+      </c>
+      <c r="L217">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>2</v>
+      </c>
+      <c r="B218" s="1">
+        <v>44486</v>
+      </c>
+      <c r="C218">
+        <v>217</v>
+      </c>
+      <c r="D218" t="s">
+        <v>3</v>
+      </c>
+      <c r="E218" s="1">
+        <v>44486</v>
+      </c>
+      <c r="F218">
+        <v>202</v>
+      </c>
+      <c r="G218" t="s">
+        <v>4</v>
+      </c>
+      <c r="H218" s="1">
+        <v>44486</v>
+      </c>
+      <c r="I218">
+        <v>151</v>
+      </c>
+      <c r="J218" t="s">
+        <v>5</v>
+      </c>
+      <c r="K218" s="1">
+        <v>44486</v>
+      </c>
+      <c r="L218">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>2</v>
+      </c>
+      <c r="B219" s="1">
+        <v>44487</v>
+      </c>
+      <c r="C219">
+        <v>218</v>
+      </c>
+      <c r="D219" t="s">
+        <v>3</v>
+      </c>
+      <c r="E219" s="1">
+        <v>44487</v>
+      </c>
+      <c r="F219">
+        <v>203</v>
+      </c>
+      <c r="G219" t="s">
+        <v>4</v>
+      </c>
+      <c r="H219" s="1">
+        <v>44487</v>
+      </c>
+      <c r="I219">
+        <v>152</v>
+      </c>
+      <c r="J219" t="s">
+        <v>5</v>
+      </c>
+      <c r="K219" s="1">
+        <v>44487</v>
+      </c>
+      <c r="L219">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>2</v>
+      </c>
+      <c r="B220" s="1">
+        <v>44488</v>
+      </c>
+      <c r="C220">
+        <v>219</v>
+      </c>
+      <c r="D220" t="s">
+        <v>3</v>
+      </c>
+      <c r="E220" s="1">
+        <v>44488</v>
+      </c>
+      <c r="F220">
+        <v>204</v>
+      </c>
+      <c r="G220" t="s">
+        <v>4</v>
+      </c>
+      <c r="H220" s="1">
+        <v>44488</v>
+      </c>
+      <c r="I220">
+        <v>153</v>
+      </c>
+      <c r="J220" t="s">
+        <v>5</v>
+      </c>
+      <c r="K220" s="1">
+        <v>44488</v>
+      </c>
+      <c r="L220">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>2</v>
+      </c>
+      <c r="B221" s="1">
+        <v>44489</v>
+      </c>
+      <c r="C221">
+        <v>220</v>
+      </c>
+      <c r="D221" t="s">
+        <v>3</v>
+      </c>
+      <c r="E221" s="1">
+        <v>44489</v>
+      </c>
+      <c r="F221">
+        <v>205</v>
+      </c>
+      <c r="G221" t="s">
+        <v>4</v>
+      </c>
+      <c r="H221" s="1">
+        <v>44489</v>
+      </c>
+      <c r="I221">
+        <v>154</v>
+      </c>
+      <c r="J221" t="s">
+        <v>5</v>
+      </c>
+      <c r="K221" s="1">
+        <v>44489</v>
+      </c>
+      <c r="L221">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>2</v>
+      </c>
+      <c r="B222" s="1">
+        <v>44490</v>
+      </c>
+      <c r="C222">
+        <v>221</v>
+      </c>
+      <c r="D222" t="s">
+        <v>3</v>
+      </c>
+      <c r="E222" s="1">
+        <v>44490</v>
+      </c>
+      <c r="F222">
+        <v>206</v>
+      </c>
+      <c r="G222" t="s">
+        <v>4</v>
+      </c>
+      <c r="H222" s="1">
+        <v>44490</v>
+      </c>
+      <c r="I222">
+        <v>155</v>
+      </c>
+      <c r="J222" t="s">
+        <v>5</v>
+      </c>
+      <c r="K222" s="1">
+        <v>44490</v>
+      </c>
+      <c r="L222">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>2</v>
+      </c>
+      <c r="B223" s="1">
+        <v>44491</v>
+      </c>
+      <c r="C223">
+        <v>222</v>
+      </c>
+      <c r="D223" t="s">
+        <v>3</v>
+      </c>
+      <c r="E223" s="1">
+        <v>44491</v>
+      </c>
+      <c r="F223">
+        <v>207</v>
+      </c>
+      <c r="G223" t="s">
+        <v>4</v>
+      </c>
+      <c r="H223" s="1">
+        <v>44491</v>
+      </c>
+      <c r="I223">
+        <v>156</v>
+      </c>
+      <c r="J223" t="s">
+        <v>5</v>
+      </c>
+      <c r="K223" s="1">
+        <v>44491</v>
+      </c>
+      <c r="L223">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>2</v>
+      </c>
+      <c r="B224" s="1">
+        <v>44492</v>
+      </c>
+      <c r="C224">
+        <v>223</v>
+      </c>
+      <c r="D224" t="s">
+        <v>3</v>
+      </c>
+      <c r="E224" s="1">
+        <v>44492</v>
+      </c>
+      <c r="F224">
+        <v>208</v>
+      </c>
+      <c r="G224" t="s">
+        <v>4</v>
+      </c>
+      <c r="H224" s="1">
+        <v>44492</v>
+      </c>
+      <c r="I224">
+        <v>157</v>
+      </c>
+      <c r="J224" t="s">
+        <v>5</v>
+      </c>
+      <c r="K224" s="1">
+        <v>44492</v>
+      </c>
+      <c r="L224">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>2</v>
+      </c>
+      <c r="B225" s="1">
+        <v>44493</v>
+      </c>
+      <c r="C225">
+        <v>224</v>
+      </c>
+      <c r="D225" t="s">
+        <v>3</v>
+      </c>
+      <c r="E225" s="1">
+        <v>44493</v>
+      </c>
+      <c r="F225">
+        <v>209</v>
+      </c>
+      <c r="G225" t="s">
+        <v>4</v>
+      </c>
+      <c r="H225" s="1">
+        <v>44493</v>
+      </c>
+      <c r="I225">
+        <v>158</v>
+      </c>
+      <c r="J225" t="s">
+        <v>5</v>
+      </c>
+      <c r="K225" s="1">
+        <v>44493</v>
+      </c>
+      <c r="L225">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>2</v>
+      </c>
+      <c r="B226" s="1">
+        <v>44494</v>
+      </c>
+      <c r="C226">
+        <v>225</v>
+      </c>
+      <c r="D226" t="s">
+        <v>3</v>
+      </c>
+      <c r="E226" s="1">
+        <v>44494</v>
+      </c>
+      <c r="F226">
+        <v>210</v>
+      </c>
+      <c r="G226" t="s">
+        <v>4</v>
+      </c>
+      <c r="H226" s="1">
+        <v>44494</v>
+      </c>
+      <c r="I226">
+        <v>159</v>
+      </c>
+      <c r="J226" t="s">
+        <v>5</v>
+      </c>
+      <c r="K226" s="1">
+        <v>44494</v>
+      </c>
+      <c r="L226">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>2</v>
+      </c>
+      <c r="B227" s="1">
+        <v>44495</v>
+      </c>
+      <c r="C227">
+        <v>226</v>
+      </c>
+      <c r="D227" t="s">
+        <v>3</v>
+      </c>
+      <c r="E227" s="1">
+        <v>44495</v>
+      </c>
+      <c r="F227">
+        <v>211</v>
+      </c>
+      <c r="G227" t="s">
+        <v>4</v>
+      </c>
+      <c r="H227" s="1">
+        <v>44495</v>
+      </c>
+      <c r="I227">
+        <v>160</v>
+      </c>
+      <c r="J227" t="s">
+        <v>5</v>
+      </c>
+      <c r="K227" s="1">
+        <v>44495</v>
+      </c>
+      <c r="L227">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/foryou_data.xlsx
+++ b/data/foryou_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SJTU_STUDYING\研究生\研一\Foryou\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF22450-967D-41DD-813D-153E68A9CDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3096AE-8461-4121-BF4A-641DECD9FC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="7">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -378,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L227"/>
+  <dimension ref="A1:L265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="N222" sqref="N222"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="L227" sqref="L227:L265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6610,6 +6610,1450 @@
         <v>39</v>
       </c>
     </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>2</v>
+      </c>
+      <c r="B228" s="1">
+        <v>44496</v>
+      </c>
+      <c r="C228">
+        <v>227</v>
+      </c>
+      <c r="D228" t="s">
+        <v>3</v>
+      </c>
+      <c r="E228" s="1">
+        <v>44496</v>
+      </c>
+      <c r="F228">
+        <v>212</v>
+      </c>
+      <c r="G228" t="s">
+        <v>4</v>
+      </c>
+      <c r="H228" s="1">
+        <v>44496</v>
+      </c>
+      <c r="I228">
+        <v>161</v>
+      </c>
+      <c r="J228" t="s">
+        <v>5</v>
+      </c>
+      <c r="K228" s="1">
+        <v>44496</v>
+      </c>
+      <c r="L228">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>2</v>
+      </c>
+      <c r="B229" s="1">
+        <v>44497</v>
+      </c>
+      <c r="C229">
+        <v>228</v>
+      </c>
+      <c r="D229" t="s">
+        <v>3</v>
+      </c>
+      <c r="E229" s="1">
+        <v>44497</v>
+      </c>
+      <c r="F229">
+        <v>213</v>
+      </c>
+      <c r="G229" t="s">
+        <v>4</v>
+      </c>
+      <c r="H229" s="1">
+        <v>44497</v>
+      </c>
+      <c r="I229">
+        <v>162</v>
+      </c>
+      <c r="J229" t="s">
+        <v>5</v>
+      </c>
+      <c r="K229" s="1">
+        <v>44497</v>
+      </c>
+      <c r="L229">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>2</v>
+      </c>
+      <c r="B230" s="1">
+        <v>44498</v>
+      </c>
+      <c r="C230">
+        <v>229</v>
+      </c>
+      <c r="D230" t="s">
+        <v>3</v>
+      </c>
+      <c r="E230" s="1">
+        <v>44498</v>
+      </c>
+      <c r="F230">
+        <v>214</v>
+      </c>
+      <c r="G230" t="s">
+        <v>4</v>
+      </c>
+      <c r="H230" s="1">
+        <v>44498</v>
+      </c>
+      <c r="I230">
+        <v>163</v>
+      </c>
+      <c r="J230" t="s">
+        <v>5</v>
+      </c>
+      <c r="K230" s="1">
+        <v>44498</v>
+      </c>
+      <c r="L230">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>2</v>
+      </c>
+      <c r="B231" s="1">
+        <v>44499</v>
+      </c>
+      <c r="C231">
+        <v>230</v>
+      </c>
+      <c r="D231" t="s">
+        <v>3</v>
+      </c>
+      <c r="E231" s="1">
+        <v>44499</v>
+      </c>
+      <c r="F231">
+        <v>215</v>
+      </c>
+      <c r="G231" t="s">
+        <v>4</v>
+      </c>
+      <c r="H231" s="1">
+        <v>44499</v>
+      </c>
+      <c r="I231">
+        <v>164</v>
+      </c>
+      <c r="J231" t="s">
+        <v>5</v>
+      </c>
+      <c r="K231" s="1">
+        <v>44499</v>
+      </c>
+      <c r="L231">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>2</v>
+      </c>
+      <c r="B232" s="1">
+        <v>44500</v>
+      </c>
+      <c r="C232">
+        <v>231</v>
+      </c>
+      <c r="D232" t="s">
+        <v>3</v>
+      </c>
+      <c r="E232" s="1">
+        <v>44500</v>
+      </c>
+      <c r="F232">
+        <v>216</v>
+      </c>
+      <c r="G232" t="s">
+        <v>4</v>
+      </c>
+      <c r="H232" s="1">
+        <v>44500</v>
+      </c>
+      <c r="I232">
+        <v>165</v>
+      </c>
+      <c r="J232" t="s">
+        <v>5</v>
+      </c>
+      <c r="K232" s="1">
+        <v>44500</v>
+      </c>
+      <c r="L232">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>2</v>
+      </c>
+      <c r="B233" s="1">
+        <v>44501</v>
+      </c>
+      <c r="C233">
+        <v>232</v>
+      </c>
+      <c r="D233" t="s">
+        <v>3</v>
+      </c>
+      <c r="E233" s="1">
+        <v>44501</v>
+      </c>
+      <c r="F233">
+        <v>217</v>
+      </c>
+      <c r="G233" t="s">
+        <v>4</v>
+      </c>
+      <c r="H233" s="1">
+        <v>44501</v>
+      </c>
+      <c r="I233">
+        <v>166</v>
+      </c>
+      <c r="J233" t="s">
+        <v>5</v>
+      </c>
+      <c r="K233" s="1">
+        <v>44501</v>
+      </c>
+      <c r="L233">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>2</v>
+      </c>
+      <c r="B234" s="1">
+        <v>44502</v>
+      </c>
+      <c r="C234">
+        <v>233</v>
+      </c>
+      <c r="D234" t="s">
+        <v>3</v>
+      </c>
+      <c r="E234" s="1">
+        <v>44502</v>
+      </c>
+      <c r="F234">
+        <v>218</v>
+      </c>
+      <c r="G234" t="s">
+        <v>4</v>
+      </c>
+      <c r="H234" s="1">
+        <v>44502</v>
+      </c>
+      <c r="I234">
+        <v>167</v>
+      </c>
+      <c r="J234" t="s">
+        <v>5</v>
+      </c>
+      <c r="K234" s="1">
+        <v>44502</v>
+      </c>
+      <c r="L234">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>2</v>
+      </c>
+      <c r="B235" s="1">
+        <v>44503</v>
+      </c>
+      <c r="C235">
+        <v>234</v>
+      </c>
+      <c r="D235" t="s">
+        <v>3</v>
+      </c>
+      <c r="E235" s="1">
+        <v>44503</v>
+      </c>
+      <c r="F235">
+        <v>219</v>
+      </c>
+      <c r="G235" t="s">
+        <v>4</v>
+      </c>
+      <c r="H235" s="1">
+        <v>44503</v>
+      </c>
+      <c r="I235">
+        <v>168</v>
+      </c>
+      <c r="J235" t="s">
+        <v>5</v>
+      </c>
+      <c r="K235" s="1">
+        <v>44503</v>
+      </c>
+      <c r="L235">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>2</v>
+      </c>
+      <c r="B236" s="1">
+        <v>44504</v>
+      </c>
+      <c r="C236">
+        <v>235</v>
+      </c>
+      <c r="D236" t="s">
+        <v>3</v>
+      </c>
+      <c r="E236" s="1">
+        <v>44504</v>
+      </c>
+      <c r="F236">
+        <v>220</v>
+      </c>
+      <c r="G236" t="s">
+        <v>4</v>
+      </c>
+      <c r="H236" s="1">
+        <v>44504</v>
+      </c>
+      <c r="I236">
+        <v>169</v>
+      </c>
+      <c r="J236" t="s">
+        <v>5</v>
+      </c>
+      <c r="K236" s="1">
+        <v>44504</v>
+      </c>
+      <c r="L236">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>2</v>
+      </c>
+      <c r="B237" s="1">
+        <v>44505</v>
+      </c>
+      <c r="C237">
+        <v>236</v>
+      </c>
+      <c r="D237" t="s">
+        <v>3</v>
+      </c>
+      <c r="E237" s="1">
+        <v>44505</v>
+      </c>
+      <c r="F237">
+        <v>221</v>
+      </c>
+      <c r="G237" t="s">
+        <v>4</v>
+      </c>
+      <c r="H237" s="1">
+        <v>44505</v>
+      </c>
+      <c r="I237">
+        <v>170</v>
+      </c>
+      <c r="J237" t="s">
+        <v>5</v>
+      </c>
+      <c r="K237" s="1">
+        <v>44505</v>
+      </c>
+      <c r="L237">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>2</v>
+      </c>
+      <c r="B238" s="1">
+        <v>44506</v>
+      </c>
+      <c r="C238">
+        <v>237</v>
+      </c>
+      <c r="D238" t="s">
+        <v>3</v>
+      </c>
+      <c r="E238" s="1">
+        <v>44506</v>
+      </c>
+      <c r="F238">
+        <v>222</v>
+      </c>
+      <c r="G238" t="s">
+        <v>4</v>
+      </c>
+      <c r="H238" s="1">
+        <v>44506</v>
+      </c>
+      <c r="I238">
+        <v>171</v>
+      </c>
+      <c r="J238" t="s">
+        <v>5</v>
+      </c>
+      <c r="K238" s="1">
+        <v>44506</v>
+      </c>
+      <c r="L238">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>2</v>
+      </c>
+      <c r="B239" s="1">
+        <v>44507</v>
+      </c>
+      <c r="C239">
+        <v>238</v>
+      </c>
+      <c r="D239" t="s">
+        <v>3</v>
+      </c>
+      <c r="E239" s="1">
+        <v>44507</v>
+      </c>
+      <c r="F239">
+        <v>223</v>
+      </c>
+      <c r="G239" t="s">
+        <v>4</v>
+      </c>
+      <c r="H239" s="1">
+        <v>44507</v>
+      </c>
+      <c r="I239">
+        <v>172</v>
+      </c>
+      <c r="J239" t="s">
+        <v>5</v>
+      </c>
+      <c r="K239" s="1">
+        <v>44507</v>
+      </c>
+      <c r="L239">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>2</v>
+      </c>
+      <c r="B240" s="1">
+        <v>44508</v>
+      </c>
+      <c r="C240">
+        <v>239</v>
+      </c>
+      <c r="D240" t="s">
+        <v>3</v>
+      </c>
+      <c r="E240" s="1">
+        <v>44508</v>
+      </c>
+      <c r="F240">
+        <v>224</v>
+      </c>
+      <c r="G240" t="s">
+        <v>4</v>
+      </c>
+      <c r="H240" s="1">
+        <v>44508</v>
+      </c>
+      <c r="I240">
+        <v>173</v>
+      </c>
+      <c r="J240" t="s">
+        <v>5</v>
+      </c>
+      <c r="K240" s="1">
+        <v>44508</v>
+      </c>
+      <c r="L240">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>2</v>
+      </c>
+      <c r="B241" s="1">
+        <v>44509</v>
+      </c>
+      <c r="C241">
+        <v>240</v>
+      </c>
+      <c r="D241" t="s">
+        <v>3</v>
+      </c>
+      <c r="E241" s="1">
+        <v>44509</v>
+      </c>
+      <c r="F241">
+        <v>225</v>
+      </c>
+      <c r="G241" t="s">
+        <v>4</v>
+      </c>
+      <c r="H241" s="1">
+        <v>44509</v>
+      </c>
+      <c r="I241">
+        <v>174</v>
+      </c>
+      <c r="J241" t="s">
+        <v>5</v>
+      </c>
+      <c r="K241" s="1">
+        <v>44509</v>
+      </c>
+      <c r="L241">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>2</v>
+      </c>
+      <c r="B242" s="1">
+        <v>44510</v>
+      </c>
+      <c r="C242">
+        <v>241</v>
+      </c>
+      <c r="D242" t="s">
+        <v>3</v>
+      </c>
+      <c r="E242" s="1">
+        <v>44510</v>
+      </c>
+      <c r="F242">
+        <v>226</v>
+      </c>
+      <c r="G242" t="s">
+        <v>4</v>
+      </c>
+      <c r="H242" s="1">
+        <v>44510</v>
+      </c>
+      <c r="I242">
+        <v>175</v>
+      </c>
+      <c r="J242" t="s">
+        <v>5</v>
+      </c>
+      <c r="K242" s="1">
+        <v>44510</v>
+      </c>
+      <c r="L242">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>2</v>
+      </c>
+      <c r="B243" s="1">
+        <v>44511</v>
+      </c>
+      <c r="C243">
+        <v>242</v>
+      </c>
+      <c r="D243" t="s">
+        <v>3</v>
+      </c>
+      <c r="E243" s="1">
+        <v>44511</v>
+      </c>
+      <c r="F243">
+        <v>227</v>
+      </c>
+      <c r="G243" t="s">
+        <v>4</v>
+      </c>
+      <c r="H243" s="1">
+        <v>44511</v>
+      </c>
+      <c r="I243">
+        <v>176</v>
+      </c>
+      <c r="J243" t="s">
+        <v>5</v>
+      </c>
+      <c r="K243" s="1">
+        <v>44511</v>
+      </c>
+      <c r="L243">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>2</v>
+      </c>
+      <c r="B244" s="1">
+        <v>44512</v>
+      </c>
+      <c r="C244">
+        <v>243</v>
+      </c>
+      <c r="D244" t="s">
+        <v>3</v>
+      </c>
+      <c r="E244" s="1">
+        <v>44512</v>
+      </c>
+      <c r="F244">
+        <v>228</v>
+      </c>
+      <c r="G244" t="s">
+        <v>4</v>
+      </c>
+      <c r="H244" s="1">
+        <v>44512</v>
+      </c>
+      <c r="I244">
+        <v>177</v>
+      </c>
+      <c r="J244" t="s">
+        <v>5</v>
+      </c>
+      <c r="K244" s="1">
+        <v>44512</v>
+      </c>
+      <c r="L244">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>2</v>
+      </c>
+      <c r="B245" s="1">
+        <v>44513</v>
+      </c>
+      <c r="C245">
+        <v>244</v>
+      </c>
+      <c r="D245" t="s">
+        <v>3</v>
+      </c>
+      <c r="E245" s="1">
+        <v>44513</v>
+      </c>
+      <c r="F245">
+        <v>229</v>
+      </c>
+      <c r="G245" t="s">
+        <v>4</v>
+      </c>
+      <c r="H245" s="1">
+        <v>44513</v>
+      </c>
+      <c r="I245">
+        <v>178</v>
+      </c>
+      <c r="J245" t="s">
+        <v>5</v>
+      </c>
+      <c r="K245" s="1">
+        <v>44513</v>
+      </c>
+      <c r="L245">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>2</v>
+      </c>
+      <c r="B246" s="1">
+        <v>44514</v>
+      </c>
+      <c r="C246">
+        <v>245</v>
+      </c>
+      <c r="D246" t="s">
+        <v>3</v>
+      </c>
+      <c r="E246" s="1">
+        <v>44514</v>
+      </c>
+      <c r="F246">
+        <v>230</v>
+      </c>
+      <c r="G246" t="s">
+        <v>4</v>
+      </c>
+      <c r="H246" s="1">
+        <v>44514</v>
+      </c>
+      <c r="I246">
+        <v>179</v>
+      </c>
+      <c r="J246" t="s">
+        <v>5</v>
+      </c>
+      <c r="K246" s="1">
+        <v>44514</v>
+      </c>
+      <c r="L246">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>2</v>
+      </c>
+      <c r="B247" s="1">
+        <v>44515</v>
+      </c>
+      <c r="C247">
+        <v>246</v>
+      </c>
+      <c r="D247" t="s">
+        <v>3</v>
+      </c>
+      <c r="E247" s="1">
+        <v>44515</v>
+      </c>
+      <c r="F247">
+        <v>231</v>
+      </c>
+      <c r="G247" t="s">
+        <v>4</v>
+      </c>
+      <c r="H247" s="1">
+        <v>44515</v>
+      </c>
+      <c r="I247">
+        <v>180</v>
+      </c>
+      <c r="J247" t="s">
+        <v>5</v>
+      </c>
+      <c r="K247" s="1">
+        <v>44515</v>
+      </c>
+      <c r="L247">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>2</v>
+      </c>
+      <c r="B248" s="1">
+        <v>44516</v>
+      </c>
+      <c r="C248">
+        <v>247</v>
+      </c>
+      <c r="D248" t="s">
+        <v>3</v>
+      </c>
+      <c r="E248" s="1">
+        <v>44516</v>
+      </c>
+      <c r="F248">
+        <v>232</v>
+      </c>
+      <c r="G248" t="s">
+        <v>4</v>
+      </c>
+      <c r="H248" s="1">
+        <v>44516</v>
+      </c>
+      <c r="I248">
+        <v>181</v>
+      </c>
+      <c r="J248" t="s">
+        <v>5</v>
+      </c>
+      <c r="K248" s="1">
+        <v>44516</v>
+      </c>
+      <c r="L248">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>2</v>
+      </c>
+      <c r="B249" s="1">
+        <v>44517</v>
+      </c>
+      <c r="C249">
+        <v>248</v>
+      </c>
+      <c r="D249" t="s">
+        <v>3</v>
+      </c>
+      <c r="E249" s="1">
+        <v>44517</v>
+      </c>
+      <c r="F249">
+        <v>233</v>
+      </c>
+      <c r="G249" t="s">
+        <v>4</v>
+      </c>
+      <c r="H249" s="1">
+        <v>44517</v>
+      </c>
+      <c r="I249">
+        <v>182</v>
+      </c>
+      <c r="J249" t="s">
+        <v>5</v>
+      </c>
+      <c r="K249" s="1">
+        <v>44517</v>
+      </c>
+      <c r="L249">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>2</v>
+      </c>
+      <c r="B250" s="1">
+        <v>44518</v>
+      </c>
+      <c r="C250">
+        <v>249</v>
+      </c>
+      <c r="D250" t="s">
+        <v>3</v>
+      </c>
+      <c r="E250" s="1">
+        <v>44518</v>
+      </c>
+      <c r="F250">
+        <v>234</v>
+      </c>
+      <c r="G250" t="s">
+        <v>4</v>
+      </c>
+      <c r="H250" s="1">
+        <v>44518</v>
+      </c>
+      <c r="I250">
+        <v>183</v>
+      </c>
+      <c r="J250" t="s">
+        <v>5</v>
+      </c>
+      <c r="K250" s="1">
+        <v>44518</v>
+      </c>
+      <c r="L250">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>2</v>
+      </c>
+      <c r="B251" s="1">
+        <v>44519</v>
+      </c>
+      <c r="C251">
+        <v>250</v>
+      </c>
+      <c r="D251" t="s">
+        <v>3</v>
+      </c>
+      <c r="E251" s="1">
+        <v>44519</v>
+      </c>
+      <c r="F251">
+        <v>235</v>
+      </c>
+      <c r="G251" t="s">
+        <v>4</v>
+      </c>
+      <c r="H251" s="1">
+        <v>44519</v>
+      </c>
+      <c r="I251">
+        <v>184</v>
+      </c>
+      <c r="J251" t="s">
+        <v>5</v>
+      </c>
+      <c r="K251" s="1">
+        <v>44519</v>
+      </c>
+      <c r="L251">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>2</v>
+      </c>
+      <c r="B252" s="1">
+        <v>44520</v>
+      </c>
+      <c r="C252">
+        <v>251</v>
+      </c>
+      <c r="D252" t="s">
+        <v>3</v>
+      </c>
+      <c r="E252" s="1">
+        <v>44520</v>
+      </c>
+      <c r="F252">
+        <v>236</v>
+      </c>
+      <c r="G252" t="s">
+        <v>4</v>
+      </c>
+      <c r="H252" s="1">
+        <v>44520</v>
+      </c>
+      <c r="I252">
+        <v>185</v>
+      </c>
+      <c r="J252" t="s">
+        <v>5</v>
+      </c>
+      <c r="K252" s="1">
+        <v>44520</v>
+      </c>
+      <c r="L252">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>2</v>
+      </c>
+      <c r="B253" s="1">
+        <v>44521</v>
+      </c>
+      <c r="C253">
+        <v>252</v>
+      </c>
+      <c r="D253" t="s">
+        <v>3</v>
+      </c>
+      <c r="E253" s="1">
+        <v>44521</v>
+      </c>
+      <c r="F253">
+        <v>237</v>
+      </c>
+      <c r="G253" t="s">
+        <v>4</v>
+      </c>
+      <c r="H253" s="1">
+        <v>44521</v>
+      </c>
+      <c r="I253">
+        <v>186</v>
+      </c>
+      <c r="J253" t="s">
+        <v>5</v>
+      </c>
+      <c r="K253" s="1">
+        <v>44521</v>
+      </c>
+      <c r="L253">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>2</v>
+      </c>
+      <c r="B254" s="1">
+        <v>44522</v>
+      </c>
+      <c r="C254">
+        <v>253</v>
+      </c>
+      <c r="D254" t="s">
+        <v>3</v>
+      </c>
+      <c r="E254" s="1">
+        <v>44522</v>
+      </c>
+      <c r="F254">
+        <v>238</v>
+      </c>
+      <c r="G254" t="s">
+        <v>4</v>
+      </c>
+      <c r="H254" s="1">
+        <v>44522</v>
+      </c>
+      <c r="I254">
+        <v>187</v>
+      </c>
+      <c r="J254" t="s">
+        <v>5</v>
+      </c>
+      <c r="K254" s="1">
+        <v>44522</v>
+      </c>
+      <c r="L254">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>2</v>
+      </c>
+      <c r="B255" s="1">
+        <v>44523</v>
+      </c>
+      <c r="C255">
+        <v>254</v>
+      </c>
+      <c r="D255" t="s">
+        <v>3</v>
+      </c>
+      <c r="E255" s="1">
+        <v>44523</v>
+      </c>
+      <c r="F255">
+        <v>239</v>
+      </c>
+      <c r="G255" t="s">
+        <v>4</v>
+      </c>
+      <c r="H255" s="1">
+        <v>44523</v>
+      </c>
+      <c r="I255">
+        <v>188</v>
+      </c>
+      <c r="J255" t="s">
+        <v>5</v>
+      </c>
+      <c r="K255" s="1">
+        <v>44523</v>
+      </c>
+      <c r="L255">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>2</v>
+      </c>
+      <c r="B256" s="1">
+        <v>44524</v>
+      </c>
+      <c r="C256">
+        <v>255</v>
+      </c>
+      <c r="D256" t="s">
+        <v>3</v>
+      </c>
+      <c r="E256" s="1">
+        <v>44524</v>
+      </c>
+      <c r="F256">
+        <v>240</v>
+      </c>
+      <c r="G256" t="s">
+        <v>4</v>
+      </c>
+      <c r="H256" s="1">
+        <v>44524</v>
+      </c>
+      <c r="I256">
+        <v>189</v>
+      </c>
+      <c r="J256" t="s">
+        <v>5</v>
+      </c>
+      <c r="K256" s="1">
+        <v>44524</v>
+      </c>
+      <c r="L256">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>2</v>
+      </c>
+      <c r="B257" s="1">
+        <v>44525</v>
+      </c>
+      <c r="C257">
+        <v>256</v>
+      </c>
+      <c r="D257" t="s">
+        <v>3</v>
+      </c>
+      <c r="E257" s="1">
+        <v>44525</v>
+      </c>
+      <c r="F257">
+        <v>241</v>
+      </c>
+      <c r="G257" t="s">
+        <v>4</v>
+      </c>
+      <c r="H257" s="1">
+        <v>44525</v>
+      </c>
+      <c r="I257">
+        <v>190</v>
+      </c>
+      <c r="J257" t="s">
+        <v>5</v>
+      </c>
+      <c r="K257" s="1">
+        <v>44525</v>
+      </c>
+      <c r="L257">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>2</v>
+      </c>
+      <c r="B258" s="1">
+        <v>44526</v>
+      </c>
+      <c r="C258">
+        <v>257</v>
+      </c>
+      <c r="D258" t="s">
+        <v>3</v>
+      </c>
+      <c r="E258" s="1">
+        <v>44526</v>
+      </c>
+      <c r="F258">
+        <v>242</v>
+      </c>
+      <c r="G258" t="s">
+        <v>4</v>
+      </c>
+      <c r="H258" s="1">
+        <v>44526</v>
+      </c>
+      <c r="I258">
+        <v>191</v>
+      </c>
+      <c r="J258" t="s">
+        <v>5</v>
+      </c>
+      <c r="K258" s="1">
+        <v>44526</v>
+      </c>
+      <c r="L258">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>2</v>
+      </c>
+      <c r="B259" s="1">
+        <v>44527</v>
+      </c>
+      <c r="C259">
+        <v>258</v>
+      </c>
+      <c r="D259" t="s">
+        <v>3</v>
+      </c>
+      <c r="E259" s="1">
+        <v>44527</v>
+      </c>
+      <c r="F259">
+        <v>243</v>
+      </c>
+      <c r="G259" t="s">
+        <v>4</v>
+      </c>
+      <c r="H259" s="1">
+        <v>44527</v>
+      </c>
+      <c r="I259">
+        <v>192</v>
+      </c>
+      <c r="J259" t="s">
+        <v>5</v>
+      </c>
+      <c r="K259" s="1">
+        <v>44527</v>
+      </c>
+      <c r="L259">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>2</v>
+      </c>
+      <c r="B260" s="1">
+        <v>44528</v>
+      </c>
+      <c r="C260">
+        <v>259</v>
+      </c>
+      <c r="D260" t="s">
+        <v>3</v>
+      </c>
+      <c r="E260" s="1">
+        <v>44528</v>
+      </c>
+      <c r="F260">
+        <v>244</v>
+      </c>
+      <c r="G260" t="s">
+        <v>4</v>
+      </c>
+      <c r="H260" s="1">
+        <v>44528</v>
+      </c>
+      <c r="I260">
+        <v>193</v>
+      </c>
+      <c r="J260" t="s">
+        <v>5</v>
+      </c>
+      <c r="K260" s="1">
+        <v>44528</v>
+      </c>
+      <c r="L260">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>2</v>
+      </c>
+      <c r="B261" s="1">
+        <v>44529</v>
+      </c>
+      <c r="C261">
+        <v>260</v>
+      </c>
+      <c r="D261" t="s">
+        <v>3</v>
+      </c>
+      <c r="E261" s="1">
+        <v>44529</v>
+      </c>
+      <c r="F261">
+        <v>245</v>
+      </c>
+      <c r="G261" t="s">
+        <v>4</v>
+      </c>
+      <c r="H261" s="1">
+        <v>44529</v>
+      </c>
+      <c r="I261">
+        <v>194</v>
+      </c>
+      <c r="J261" t="s">
+        <v>5</v>
+      </c>
+      <c r="K261" s="1">
+        <v>44529</v>
+      </c>
+      <c r="L261">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>2</v>
+      </c>
+      <c r="B262" s="1">
+        <v>44530</v>
+      </c>
+      <c r="C262">
+        <v>261</v>
+      </c>
+      <c r="D262" t="s">
+        <v>3</v>
+      </c>
+      <c r="E262" s="1">
+        <v>44530</v>
+      </c>
+      <c r="F262">
+        <v>246</v>
+      </c>
+      <c r="G262" t="s">
+        <v>4</v>
+      </c>
+      <c r="H262" s="1">
+        <v>44530</v>
+      </c>
+      <c r="I262">
+        <v>195</v>
+      </c>
+      <c r="J262" t="s">
+        <v>5</v>
+      </c>
+      <c r="K262" s="1">
+        <v>44530</v>
+      </c>
+      <c r="L262">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>2</v>
+      </c>
+      <c r="B263" s="1">
+        <v>44531</v>
+      </c>
+      <c r="C263">
+        <v>262</v>
+      </c>
+      <c r="D263" t="s">
+        <v>3</v>
+      </c>
+      <c r="E263" s="1">
+        <v>44531</v>
+      </c>
+      <c r="F263">
+        <v>247</v>
+      </c>
+      <c r="G263" t="s">
+        <v>4</v>
+      </c>
+      <c r="H263" s="1">
+        <v>44531</v>
+      </c>
+      <c r="I263">
+        <v>196</v>
+      </c>
+      <c r="J263" t="s">
+        <v>5</v>
+      </c>
+      <c r="K263" s="1">
+        <v>44531</v>
+      </c>
+      <c r="L263">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>2</v>
+      </c>
+      <c r="B264" s="1">
+        <v>44532</v>
+      </c>
+      <c r="C264">
+        <v>263</v>
+      </c>
+      <c r="D264" t="s">
+        <v>3</v>
+      </c>
+      <c r="E264" s="1">
+        <v>44532</v>
+      </c>
+      <c r="F264">
+        <v>248</v>
+      </c>
+      <c r="G264" t="s">
+        <v>4</v>
+      </c>
+      <c r="H264" s="1">
+        <v>44532</v>
+      </c>
+      <c r="I264">
+        <v>197</v>
+      </c>
+      <c r="J264" t="s">
+        <v>5</v>
+      </c>
+      <c r="K264" s="1">
+        <v>44532</v>
+      </c>
+      <c r="L264">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>2</v>
+      </c>
+      <c r="B265" s="1">
+        <v>44533</v>
+      </c>
+      <c r="C265">
+        <v>264</v>
+      </c>
+      <c r="D265" t="s">
+        <v>3</v>
+      </c>
+      <c r="E265" s="1">
+        <v>44533</v>
+      </c>
+      <c r="F265">
+        <v>249</v>
+      </c>
+      <c r="G265" t="s">
+        <v>4</v>
+      </c>
+      <c r="H265" s="1">
+        <v>44533</v>
+      </c>
+      <c r="I265">
+        <v>198</v>
+      </c>
+      <c r="J265" t="s">
+        <v>5</v>
+      </c>
+      <c r="K265" s="1">
+        <v>44533</v>
+      </c>
+      <c r="L265">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
